--- a/JsonToExcel/movies.xlsx
+++ b/JsonToExcel/movies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\gopez\JsonToExcel\JsonToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1152EE25-579C-4652-B61C-512CBD7FD316}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B90F3470-2007-42B0-8857-DD87F8F2ADA7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15396" windowHeight="7848" xr2:uid="{E4DB918C-1BCB-4FA0-B3FD-965FEB4B169A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15396" windowHeight="7848" xr2:uid="{BAF87B20-A589-420A-9A89-FFDADDB22659}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAF16EE-F164-4B6B-89DA-AAF3005B0553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE6AF8A-1C90-4812-9D85-7711ABE5A14D}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
